--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\home\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107C7457-2A74-4551-A844-FC20C0ED5EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0B7943-F230-4CF4-B601-BDEF2950A8AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25425" yWindow="3135" windowWidth="25080" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="재고" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>부산은행</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -78,11 +78,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://qr.kakaopay.com/asfasdf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://smartstore.naver.com/aqr</t>
+    <t>계좌번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입금요청 표시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만료일시</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,13 +177,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,6 +252,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -433,119 +477,143 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A1" s="1">
+    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>123421341223</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="9"/>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="1">
+    <row r="3" spans="1:9" ht="21" customHeight="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>333311134123</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
+      <c r="G3" s="9">
         <v>45148.729803240742</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="21" customHeight="1">
-      <c r="A3" s="1">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>10001010333</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="G4" s="9">
         <v>44928.521469907406</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="1">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>110001010333</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="G5" s="9">
         <v>44920.521469907406</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{DC94985F-54A7-4745-A4E0-0292265AA6C6}"/>
-    <hyperlink ref="H1" r:id="rId2" xr:uid="{F590E05C-5D66-4A4F-A39C-22CAF7150492}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\home\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B29F1C4-3930-4CA6-807D-E6526975BED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C53A7C5-AADE-47BE-AB74-DD426E3BF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>계좌번호</t>
   </si>
@@ -83,33 +83,27 @@
     <t>우리은행</t>
   </si>
   <si>
-    <t>아하하</t>
-  </si>
-  <si>
-    <t>헤헤</t>
-  </si>
-  <si>
     <t>결혼</t>
   </si>
   <si>
     <t>템플릿 종류</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>기본</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>결혼</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>부의</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>기타 축하</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>우체국</t>
@@ -927,23 +921,27 @@
       </rPr>
       <t>은행</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕안녕</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>후후후</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>축하</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한반점</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱싱상회</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>김야채</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -980,17 +978,6 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1098,6 +1085,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1113,7 +1113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1128,72 +1128,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1416,172 +1440,169 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="18" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="24" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
     <col min="10" max="10" width="112.140625" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="12" customWidth="1"/>
     <col min="13" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="21">
         <v>123421341223</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>333311134123</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>10001010333</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G4" s="26">
+        <v>44928.521469907406</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>333311134123</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="10">
-        <v>45148.729803240742</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>10001010333</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>110001010333</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="26">
+        <v>44920.521469907406</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2121111666</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10">
-        <v>44928.521469907406</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>110001010333</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="E6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10">
-        <v>44920.521469907406</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>2121111666</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
@@ -2579,7 +2600,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <extLst>
@@ -2618,327 +2639,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5">
+      <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="13.5">
-      <c r="A2" s="15" t="s">
+      <c r="B3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.5">
-      <c r="A3" s="15" t="s">
+    <row r="5" spans="1:2" ht="13.5">
+      <c r="A5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.5">
-      <c r="A4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5">
-      <c r="A5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="18" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="18" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="18" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="18" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="18" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="18" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="18" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="18" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="18" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="18" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="18" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="18" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="18" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="18" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="18" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="18" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="18" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="18" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="18" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="18" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="18" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="18" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="18" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="18" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="18" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="18" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="18" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="18" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="18" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="18" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="18" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="18" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="18" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="18" t="s">
+    <row r="40" spans="2:2">
+      <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="18" t="s">
+    <row r="41" spans="2:2">
+      <c r="B41" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="18" t="s">
+    <row r="42" spans="2:2">
+      <c r="B42" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="18" t="s">
+    <row r="43" spans="2:2">
+      <c r="B43" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="18" t="s">
+    <row r="44" spans="2:2">
+      <c r="B44" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="18" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="18" t="s">
+    <row r="46" spans="2:2">
+      <c r="B46" s="12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="18" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="18" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" s="12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="18" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="18" t="s">
+    <row r="50" spans="2:2">
+      <c r="B50" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="18" t="s">
+    <row r="51" spans="2:2">
+      <c r="B51" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="18" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" s="12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="18" t="s">
+    <row r="53" spans="2:2">
+      <c r="B53" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="18" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="18" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="18" t="s">
+    <row r="56" spans="2:2">
+      <c r="B56" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="18" t="s">
+    <row r="57" spans="2:2">
+      <c r="B57" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="18" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="18" t="s">
+    <row r="59" spans="2:2">
+      <c r="B59" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="18" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="18" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="12" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\home\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C53A7C5-AADE-47BE-AB74-DD426E3BF878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D58032-85C2-471E-B2DF-CDA54325872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>계좌번호</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>용돈</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>기업은행</t>
@@ -941,6 +938,29 @@
   </si>
   <si>
     <t>김야채</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0123456789</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>01012344321</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이뱅크</t>
+  </si>
+  <si>
+    <t>김부산</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있는나라</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1147,7 +1167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1217,6 +1237,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1440,17 +1466,17 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="24" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" style="17" customWidth="1"/>
     <col min="4" max="4" width="18" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="24" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="24" customWidth="1"/>
     <col min="8" max="8" width="25.140625" style="24" customWidth="1"/>
     <col min="9" max="9" width="3" customWidth="1"/>
@@ -1488,11 +1514,11 @@
       <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
-        <v>123421341223</v>
+      <c r="B2" s="28" t="s">
+        <v>93</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1521,9 +1547,7 @@
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="26"/>
       <c r="H3" s="22"/>
       <c r="I3" s="4"/>
@@ -1536,13 +1560,13 @@
         <v>10001010333</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>10</v>
@@ -1563,13 +1587,13 @@
         <v>110001010333</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>10</v>
@@ -1578,7 +1602,7 @@
         <v>44920.521469907406</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
@@ -1589,23 +1613,42 @@
         <v>2121111666</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" s="25"/>
       <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
@@ -2640,322 +2683,322 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5">
       <c r="A1" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.5">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5">
       <c r="A3" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.5">
       <c r="A4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\home\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunman\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D58032-85C2-471E-B2DF-CDA54325872A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF168E-8B65-4050-B1F1-E044BF45FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>계좌번호</t>
   </si>
@@ -84,23 +84,23 @@
   </si>
   <si>
     <t>템플릿 종류</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>기본</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>결혼</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>부의</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>기타 축하</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>우체국</t>
@@ -918,50 +918,107 @@
       </rPr>
       <t>은행</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>축하</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>대한반점</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>싱싱상회</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>김야채</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>0123456789</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>01012344321</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>케이뱅크</t>
   </si>
   <si>
     <t>김부산</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>맛있는나라</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AQR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이트,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://aq.gy</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>홈페이지,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://aply.biz</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -971,7 +1028,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -995,12 +1052,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
@@ -1013,11 +1064,6 @@
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1118,6 +1164,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1164,49 +1232,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1218,36 +1285,42 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1466,198 +1539,206 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="18" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="3" customWidth="1"/>
-    <col min="10" max="10" width="112.140625" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="18" style="22" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="22" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="10" customWidth="1"/>
     <col min="13" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
-      <c r="A2" s="20">
+      <c r="I1" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="21" customHeight="1">
-      <c r="A3" s="20">
+      <c r="F2" s="13"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="21" customHeight="1">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>333311134123</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="20">
+      <c r="F3" s="13"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>10001010333</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>44928.521469907406</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A5" s="20">
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>110001010333</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>44920.521469907406</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>2121111666</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A7" s="20">
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1"/>
+      <c r="I7" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -2643,7 +2724,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <extLst>
@@ -2682,327 +2763,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.5">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.5">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="10" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\home\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACF168E-8B65-4050-B1F1-E044BF45FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18422F3B-DAB7-4609-A0AE-9DCDB13B755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>제목</t>
   </si>
   <si>
-    <t>입금요청 표시</t>
-  </si>
-  <si>
     <t>만료일시</t>
   </si>
   <si>
@@ -1018,6 +1015,10 @@
       </rPr>
       <t>https://aply.biz</t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금주명 일부 감추기</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1539,7 +1540,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1549,7 +1550,7 @@
     <col min="3" max="3" width="19.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="18" style="22" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="22" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="22" customWidth="1"/>
     <col min="8" max="8" width="25.140625" style="22" customWidth="1"/>
     <col min="9" max="9" width="35.42578125" customWidth="1"/>
@@ -1572,16 +1573,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
@@ -1589,16 +1590,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="23"/>
@@ -1613,19 +1614,19 @@
         <v>333311134123</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="24"/>
       <c r="H3" s="20"/>
       <c r="I3" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -1637,22 +1638,22 @@
         <v>10001010333</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="24">
         <v>44928.521469907406</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="27"/>
     </row>
@@ -1664,22 +1665,22 @@
         <v>110001010333</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="24">
         <v>44920.521469907406</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
@@ -1690,20 +1691,20 @@
         <v>2121111666</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" s="29"/>
     </row>
@@ -1712,22 +1713,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>97</v>
-      </c>
       <c r="I7" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
@@ -2764,322 +2765,322 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.5">
       <c r="A2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.5">
       <c r="A3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.5">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/file/test.xlsx
+++ b/file/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\APLY\AQR\homepage\home\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18422F3B-DAB7-4609-A0AE-9DCDB13B755B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C9DAC-2C2A-427F-ACB7-B58D2E99CCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3810" yWindow="2970" windowWidth="16050" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="계좌정보" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>계좌번호</t>
   </si>
@@ -954,10 +954,6 @@
   </si>
   <si>
     <t>맛있는나라</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1536,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1573,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1" s="16" t="s">
         <v>4</v>
@@ -1582,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
@@ -1626,7 +1622,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="20"/>
       <c r="I3" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J3" s="7"/>
     </row>
@@ -1724,11 +1720,9 @@
       <c r="E7" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>96</v>
-      </c>
+      <c r="F7" s="23"/>
       <c r="I7" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1"/>
